--- a/통합폰트/IntSat.xlsx
+++ b/통합폰트/IntSat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sch/Desktop/sat/통합폰트/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC97E77E-272D-D947-9899-E3A8AD8FD1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C442DF-BECD-5646-8AC8-0F53FBA1CF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="22220" xr2:uid="{B142D339-A73C-E049-88B9-F86C462D7FCB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22220" xr2:uid="{B142D339-A73C-E049-88B9-F86C462D7FCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="123">
   <si>
     <t>G</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -775,6 +775,42 @@
   </si>
   <si>
     <t>⌥f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with Triple Dot Above</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +856,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +866,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,7 +890,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,6 +910,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1184,18 +1232,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD5F27C-FFA0-3E41-A195-2C175F30C936}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A39" sqref="A39"/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection pane="topRight" activeCell="C77" sqref="C1:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
   </cols>
@@ -1209,8 +1257,8 @@
         <v>57344</v>
       </c>
       <c r="C1" s="3" t="str">
-        <f>A1&amp;" "&amp;"Jemin Alphabet "&amp;D1&amp;" "&amp;F1</f>
-        <v>U+E000 Jemin Alphabet G g</v>
+        <f>"Jemin Alphabet "&amp;D1&amp;" "&amp;E1</f>
+        <v xml:space="preserve">Jemin Alphabet G </v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -1228,8 +1276,8 @@
         <v>57345</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>A2&amp;" "&amp;"Jemin Alphabet "&amp;D2&amp;" "&amp;F2</f>
-        <v>U+E001 Jemin Alphabet N n</v>
+        <f t="shared" ref="C2:C65" si="1">"Jemin Alphabet "&amp;D2&amp;" "&amp;E2</f>
+        <v xml:space="preserve">Jemin Alphabet N </v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -1247,8 +1295,8 @@
         <v>57346</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>A3&amp;" "&amp;"Jemin Alphabet "&amp;D3&amp;" "&amp;F3</f>
-        <v>U+E002 Jemin Alphabet M m</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet M </v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -1266,8 +1314,8 @@
         <v>57347</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>A4&amp;" "&amp;"Jemin Alphabet "&amp;D4&amp;" "&amp;F4</f>
-        <v>U+E003 Jemin Alphabet S s</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet S </v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -1285,8 +1333,8 @@
         <v>57348</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f>A5&amp;" "&amp;"Jemin Alphabet "&amp;D5&amp;" "&amp;F5</f>
-        <v>U+E004 Jemin Alphabet SILENT ⌥j</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet SILENT </v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
@@ -1304,8 +1352,8 @@
         <v>57349</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>A6&amp;" "&amp;"Jemin Alphabet "&amp;D6&amp;" "&amp;F6</f>
-        <v>U+E005 Jemin Alphabet GK ⌥k</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet GK </v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -1323,8 +1371,8 @@
         <v>57350</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>A7&amp;" "&amp;"Jemin Alphabet "&amp;D7&amp;" "&amp;F7</f>
-        <v>U+E006 Jemin Alphabet D d</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet D </v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -1342,8 +1390,8 @@
         <v>57351</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>A8&amp;" "&amp;"Jemin Alphabet "&amp;D8&amp;" "&amp;F8</f>
-        <v>U+E007 Jemin Alphabet B b</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet B </v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
@@ -1361,8 +1409,8 @@
         <v>57352</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>A9&amp;" "&amp;"Jemin Alphabet "&amp;D9&amp;" "&amp;F9</f>
-        <v>U+E008 Jemin Alphabet Z z</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet Z </v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -1380,8 +1428,8 @@
         <v>57353</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f>A10&amp;" "&amp;"Jemin Alphabet "&amp;D10&amp;" "&amp;F10</f>
-        <v>U+E009 Jemin Alphabet COUGH ⌥c</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet COUGH </v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -1399,8 +1447,8 @@
         <v>57354</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f>A11&amp;" "&amp;"Jemin Alphabet "&amp;D11&amp;" "&amp;F11</f>
-        <v>U+E00A Jemin Alphabet K t</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet K </v>
       </c>
       <c r="D11" s="3" t="s">
         <v>10</v>
@@ -1418,8 +1466,8 @@
         <v>57355</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f>A12&amp;" "&amp;"Jemin Alphabet "&amp;D12&amp;" "&amp;F12</f>
-        <v>U+E00B Jemin Alphabet T t</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet T </v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
@@ -1437,8 +1485,8 @@
         <v>57356</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>A13&amp;" "&amp;"Jemin Alphabet "&amp;D13&amp;" "&amp;F13</f>
-        <v>U+E00C Jemin Alphabet P p</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet P </v>
       </c>
       <c r="D13" s="3" t="s">
         <v>12</v>
@@ -1456,8 +1504,8 @@
         <v>57357</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f>A14&amp;" "&amp;"Jemin Alphabet "&amp;D14&amp;" "&amp;F14</f>
-        <v>U+E00D Jemin Alphabet C c</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet C </v>
       </c>
       <c r="D14" s="3" t="s">
         <v>14</v>
@@ -1475,8 +1523,8 @@
         <v>57358</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f>A15&amp;" "&amp;"Jemin Alphabet "&amp;D15&amp;" "&amp;F15</f>
-        <v>U+E00E Jemin Alphabet H h</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet H </v>
       </c>
       <c r="D15" s="3" t="s">
         <v>13</v>
@@ -1494,8 +1542,8 @@
         <v>57359</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f>A16&amp;" "&amp;"Jemin Alphabet "&amp;D16&amp;" "&amp;F16</f>
-        <v>U+E00F Jemin Alphabet GGK ⌥g</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet GGK </v>
       </c>
       <c r="D16" s="3" t="s">
         <v>15</v>
@@ -1513,8 +1561,8 @@
         <v>57360</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f>A17&amp;" "&amp;"Jemin Alphabet "&amp;D17&amp;" "&amp;F17</f>
-        <v>U+E010 Jemin Alphabet L l</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet L </v>
       </c>
       <c r="D17" s="3" t="s">
         <v>16</v>
@@ -1532,8 +1580,8 @@
         <v>57361</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f>A18&amp;" "&amp;"Jemin Alphabet "&amp;D18&amp;" "&amp;F18</f>
-        <v>U+E011 Jemin Alphabet BBP ⌥b</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet BBP </v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -1551,8 +1599,8 @@
         <v>57362</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>A19&amp;" "&amp;"Jemin Alphabet "&amp;D19&amp;" "&amp;F19</f>
-        <v>U+E012 Jemin Alphabet SH x</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet SH </v>
       </c>
       <c r="D19" s="3" t="s">
         <v>18</v>
@@ -1570,8 +1618,8 @@
         <v>57363</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f t="shared" ref="C2:C65" si="1">A20&amp;" "&amp;"Jemin Alphabet "&amp;D20&amp;" "&amp;E20</f>
-        <v xml:space="preserve">U+E013 Jemin Alphabet GN </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jemin Alphabet GN </v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -1590,7 +1638,7 @@
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E014 Jemin Alphabet GG </v>
+        <v xml:space="preserve">Jemin Alphabet GG </v>
       </c>
       <c r="D21" s="3" t="s">
         <v>21</v>
@@ -1609,7 +1657,7 @@
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E015 Jemin Alphabet DD </v>
+        <v xml:space="preserve">Jemin Alphabet DD </v>
       </c>
       <c r="D22" s="3" t="s">
         <v>20</v>
@@ -1628,7 +1676,7 @@
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E016 Jemin Alphabet BB </v>
+        <v xml:space="preserve">Jemin Alphabet BB </v>
       </c>
       <c r="D23" s="3" t="s">
         <v>22</v>
@@ -1647,7 +1695,7 @@
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E017 Jemin Alphabet SS </v>
+        <v xml:space="preserve">Jemin Alphabet SS </v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
@@ -1666,7 +1714,7 @@
       </c>
       <c r="C25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E018 Jemin Alphabet STRESS </v>
+        <v xml:space="preserve">Jemin Alphabet STRESS </v>
       </c>
       <c r="D25" s="3" t="s">
         <v>24</v>
@@ -1685,7 +1733,7 @@
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E019 Jemin Alphabet NG </v>
+        <v xml:space="preserve">Jemin Alphabet NG </v>
       </c>
       <c r="D26" s="3" t="s">
         <v>25</v>
@@ -1704,7 +1752,7 @@
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E01A Jemin Alphabet MG </v>
+        <v xml:space="preserve">Jemin Alphabet MG </v>
       </c>
       <c r="D27" s="3" t="s">
         <v>26</v>
@@ -1723,7 +1771,7 @@
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E01B Jemin Alphabet SG </v>
+        <v xml:space="preserve">Jemin Alphabet SG </v>
       </c>
       <c r="D28" s="3" t="s">
         <v>27</v>
@@ -1742,7 +1790,7 @@
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E01C Jemin Alphabet IG </v>
+        <v xml:space="preserve">Jemin Alphabet IG </v>
       </c>
       <c r="D29" s="3" t="s">
         <v>28</v>
@@ -1761,7 +1809,7 @@
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E01D Jemin Alphabet MN </v>
+        <v xml:space="preserve">Jemin Alphabet MN </v>
       </c>
       <c r="D30" s="3" t="s">
         <v>29</v>
@@ -1780,7 +1828,7 @@
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E01E Jemin Alphabet SN </v>
+        <v xml:space="preserve">Jemin Alphabet SN </v>
       </c>
       <c r="D31" s="3" t="s">
         <v>30</v>
@@ -1799,7 +1847,7 @@
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E01F Jemin Alphabet IN </v>
+        <v xml:space="preserve">Jemin Alphabet IN </v>
       </c>
       <c r="D32" s="3" t="s">
         <v>31</v>
@@ -1818,7 +1866,7 @@
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E020 Jemin Alphabet SM </v>
+        <v xml:space="preserve">Jemin Alphabet SM </v>
       </c>
       <c r="D33" s="3" t="s">
         <v>32</v>
@@ -1837,7 +1885,7 @@
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E021 Jemin Alphabet IM </v>
+        <v xml:space="preserve">Jemin Alphabet IM </v>
       </c>
       <c r="D34" s="3" t="s">
         <v>33</v>
@@ -1856,7 +1904,7 @@
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E022 Jemin Alphabet IS </v>
+        <v xml:space="preserve">Jemin Alphabet IS </v>
       </c>
       <c r="D35" s="3" t="s">
         <v>34</v>
@@ -1875,7 +1923,7 @@
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E023 Jemin Alphabet SEPARATOR </v>
+        <v xml:space="preserve">Jemin Alphabet SEPARATOR </v>
       </c>
       <c r="D36" s="3" t="s">
         <v>42</v>
@@ -1894,7 +1942,7 @@
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E024 Jemin Alphabet A </v>
+        <v xml:space="preserve">Jemin Alphabet A </v>
       </c>
       <c r="D37" s="3" t="s">
         <v>35</v>
@@ -1913,7 +1961,7 @@
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E025 Jemin Alphabet UH </v>
+        <v xml:space="preserve">Jemin Alphabet UH </v>
       </c>
       <c r="D38" s="3" t="s">
         <v>36</v>
@@ -1932,7 +1980,7 @@
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E026 Jemin Alphabet O </v>
+        <v xml:space="preserve">Jemin Alphabet O </v>
       </c>
       <c r="D39" s="3" t="s">
         <v>37</v>
@@ -1951,7 +1999,7 @@
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E027 Jemin Alphabet U </v>
+        <v xml:space="preserve">Jemin Alphabet U </v>
       </c>
       <c r="D40" s="3" t="s">
         <v>46</v>
@@ -1970,7 +2018,7 @@
       </c>
       <c r="C41" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E028 Jemin Alphabet EW </v>
+        <v xml:space="preserve">Jemin Alphabet EW </v>
       </c>
       <c r="D41" s="3" t="s">
         <v>38</v>
@@ -1989,7 +2037,7 @@
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E029 Jemin Alphabet I </v>
+        <v xml:space="preserve">Jemin Alphabet I </v>
       </c>
       <c r="D42" s="3" t="s">
         <v>39</v>
@@ -2008,7 +2056,7 @@
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E02A Jemin Alphabet E </v>
+        <v xml:space="preserve">Jemin Alphabet E </v>
       </c>
       <c r="D43" s="3" t="s">
         <v>41</v>
@@ -2027,7 +2075,7 @@
       </c>
       <c r="C44" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U+E02B Jemin Alphabet AE </v>
+        <v xml:space="preserve">Jemin Alphabet AE </v>
       </c>
       <c r="D44" s="3" t="s">
         <v>40</v>
@@ -2046,7 +2094,7 @@
       </c>
       <c r="C45" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E02C Jemin Alphabet A with Dot Above</v>
+        <v>Jemin Alphabet A with Dot Above</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>35</v>
@@ -2068,7 +2116,7 @@
       </c>
       <c r="C46" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E02D Jemin Alphabet UH with Dot Above</v>
+        <v>Jemin Alphabet UH with Dot Above</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>36</v>
@@ -2090,7 +2138,7 @@
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E02E Jemin Alphabet O with Dot Above</v>
+        <v>Jemin Alphabet O with Dot Above</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>37</v>
@@ -2112,7 +2160,7 @@
       </c>
       <c r="C48" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E02F Jemin Alphabet U with Dot Above</v>
+        <v>Jemin Alphabet U with Dot Above</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>46</v>
@@ -2134,7 +2182,7 @@
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E030 Jemin Alphabet EW with Dot Above</v>
+        <v>Jemin Alphabet EW with Dot Above</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>38</v>
@@ -2156,7 +2204,7 @@
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E031 Jemin Alphabet I with Dot Above</v>
+        <v>Jemin Alphabet I with Dot Above</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>39</v>
@@ -2178,7 +2226,7 @@
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E032 Jemin Alphabet E with Dot Above</v>
+        <v>Jemin Alphabet E with Dot Above</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>41</v>
@@ -2200,7 +2248,7 @@
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E033 Jemin Alphabet AE with Dot Above</v>
+        <v>Jemin Alphabet AE with Dot Above</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>40</v>
@@ -2222,7 +2270,7 @@
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E034 Jemin Alphabet A with Double Dot Above</v>
+        <v>Jemin Alphabet A with Double Dot Above</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>35</v>
@@ -2244,7 +2292,7 @@
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E035 Jemin Alphabet UH with Double Dot Above</v>
+        <v>Jemin Alphabet UH with Double Dot Above</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>36</v>
@@ -2266,7 +2314,7 @@
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E036 Jemin Alphabet O with Double Dot Above</v>
+        <v>Jemin Alphabet O with Double Dot Above</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>37</v>
@@ -2288,7 +2336,7 @@
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E037 Jemin Alphabet U with Double Dot Above</v>
+        <v>Jemin Alphabet U with Double Dot Above</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>46</v>
@@ -2310,7 +2358,7 @@
       </c>
       <c r="C57" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E038 Jemin Alphabet EW with Double Dot Above</v>
+        <v>Jemin Alphabet EW with Double Dot Above</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>38</v>
@@ -2332,7 +2380,7 @@
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E039 Jemin Alphabet I with Double Dot Above</v>
+        <v>Jemin Alphabet I with Double Dot Above</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>39</v>
@@ -2354,7 +2402,7 @@
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E03A Jemin Alphabet E with Double Dot Above</v>
+        <v>Jemin Alphabet E with Double Dot Above</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>41</v>
@@ -2376,7 +2424,7 @@
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E03B Jemin Alphabet AE with Double Dot Above</v>
+        <v>Jemin Alphabet AE with Double Dot Above</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>40</v>
@@ -2398,7 +2446,7 @@
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E03C Jemin Alphabet A with Macron</v>
+        <v>Jemin Alphabet A with Macron</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>35</v>
@@ -2420,7 +2468,7 @@
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E03D Jemin Alphabet UH with Macron</v>
+        <v>Jemin Alphabet UH with Macron</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>36</v>
@@ -2442,7 +2490,7 @@
       </c>
       <c r="C63" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E03E Jemin Alphabet O with Macron</v>
+        <v>Jemin Alphabet O with Macron</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>37</v>
@@ -2464,7 +2512,7 @@
       </c>
       <c r="C64" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E03F Jemin Alphabet U with Macron</v>
+        <v>Jemin Alphabet U with Macron</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>46</v>
@@ -2486,7 +2534,7 @@
       </c>
       <c r="C65" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U+E040 Jemin Alphabet EW with Macron</v>
+        <v>Jemin Alphabet EW with Macron</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>38</v>
@@ -2500,15 +2548,15 @@
     </row>
     <row r="66" spans="1:6" s="3" customFormat="1">
       <c r="A66" s="2" t="str">
-        <f t="shared" ref="A66:A69" si="2">"U+"&amp;DEC2HEX(B66)</f>
+        <f t="shared" ref="A66:A77" si="2">"U+"&amp;DEC2HEX(B66)</f>
         <v>U+E041</v>
       </c>
       <c r="B66" s="3">
         <v>57409</v>
       </c>
       <c r="C66" s="3" t="str">
-        <f t="shared" ref="C66:C69" si="3">A66&amp;" "&amp;"Jemin Alphabet "&amp;D66&amp;" "&amp;E66</f>
-        <v>U+E041 Jemin Alphabet I with Macron</v>
+        <f t="shared" ref="C66:C77" si="3">"Jemin Alphabet "&amp;D66&amp;" "&amp;E66</f>
+        <v>Jemin Alphabet I with Macron</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>39</v>
@@ -2530,7 +2578,7 @@
       </c>
       <c r="C67" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>U+E042 Jemin Alphabet E with Macron</v>
+        <v>Jemin Alphabet E with Macron</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>41</v>
@@ -2552,7 +2600,7 @@
       </c>
       <c r="C68" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>U+E043 Jemin Alphabet AE with Macron</v>
+        <v>Jemin Alphabet AE with Macron</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>40</v>
@@ -2574,12 +2622,188 @@
       </c>
       <c r="C69" s="3" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">U+E044 Jemin Alphabet REMAINDER </v>
+        <v>Jemin Alphabet A with Triple Dot Above</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="8" customFormat="1">
+      <c r="A70" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>U+E045</v>
+      </c>
+      <c r="B70" s="8">
+        <v>57413</v>
+      </c>
+      <c r="C70" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Jemin Alphabet UH with Triple Dot Above</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="8" customFormat="1">
+      <c r="A71" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>U+E046</v>
+      </c>
+      <c r="B71" s="8">
+        <v>57414</v>
+      </c>
+      <c r="C71" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Jemin Alphabet O with Triple Dot Above</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="8" customFormat="1">
+      <c r="A72" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>U+E047</v>
+      </c>
+      <c r="B72" s="8">
+        <v>57415</v>
+      </c>
+      <c r="C72" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Jemin Alphabet U with Triple Dot Above</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="8" customFormat="1">
+      <c r="A73" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>U+E048</v>
+      </c>
+      <c r="B73" s="8">
+        <v>57416</v>
+      </c>
+      <c r="C73" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Jemin Alphabet EW with Triple Dot Above</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="8" customFormat="1">
+      <c r="A74" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>U+E049</v>
+      </c>
+      <c r="B74" s="8">
+        <v>57417</v>
+      </c>
+      <c r="C74" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Jemin Alphabet I with Triple Dot Above</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="8" customFormat="1">
+      <c r="A75" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>U+E04A</v>
+      </c>
+      <c r="B75" s="8">
+        <v>57418</v>
+      </c>
+      <c r="C75" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Jemin Alphabet E with Triple Dot Above</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="8" customFormat="1">
+      <c r="A76" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>U+E04B</v>
+      </c>
+      <c r="B76" s="8">
+        <v>57419</v>
+      </c>
+      <c r="C76" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Jemin Alphabet AE with Triple Dot Above</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="8" customFormat="1">
+      <c r="A77" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>U+E04C</v>
+      </c>
+      <c r="B77" s="8">
+        <v>57420</v>
+      </c>
+      <c r="C77" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Jemin Alphabet REMAINDER </v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F77" s="8" t="s">
         <v>91</v>
       </c>
     </row>
